--- a/P0002/09_FICHAS/VARDATOS_v0.xlsx
+++ b/P0002/09_FICHAS/VARDATOS_v0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0002/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="11_09F192A2D3F0596BDBFA2511595ED87656CE4BB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE6BE20A-CEBA-4FE9-8A3F-1B3D8FFBE0DD}"/>
+  <xr:revisionPtr revIDLastSave="406" documentId="11_09F192A2D3F0596BDBFA2511595ED87656CE4BB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E707114F-7E50-45C2-B782-9B035610383C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20250" windowHeight="8280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2034,6 +2034,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2041,6 +2077,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2059,51 +2104,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2605,51 +2605,51 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="66" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="75" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="55"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="61"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="76"/>
     </row>
     <row r="16" spans="1:4" ht="60">
-      <c r="A16" s="55"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="76"/>
     </row>
     <row r="17" spans="1:4" ht="76.5">
-      <c r="A17" s="55"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="61"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="76"/>
     </row>
     <row r="18" spans="1:4" ht="45">
-      <c r="A18" s="56"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="62"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="77"/>
     </row>
     <row r="19" spans="1:4" ht="30">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="66" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -2658,50 +2658,50 @@
       <c r="C19" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="75" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="55"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="24"/>
       <c r="C20" s="79"/>
-      <c r="D20" s="61"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="55"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="79"/>
-      <c r="D21" s="61"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="1:4" ht="30">
-      <c r="A22" s="55"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="79"/>
-      <c r="D22" s="61"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="1:4" ht="30">
-      <c r="A23" s="55"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="79"/>
-      <c r="D23" s="61"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="1:4" ht="90">
-      <c r="A24" s="56"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="80"/>
-      <c r="D24" s="62"/>
+      <c r="D24" s="77"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="66" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -2710,26 +2710,26 @@
       <c r="C25" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="60" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="55"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="24"/>
       <c r="C26" s="79"/>
-      <c r="D26" s="64"/>
+      <c r="D26" s="69"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="55"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="25" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="79"/>
-      <c r="D27" s="64"/>
+      <c r="D27" s="69"/>
     </row>
     <row r="28" spans="1:4" ht="45">
-      <c r="A28" s="56"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="28" t="s">
         <v>53</v>
       </c>
@@ -2737,63 +2737,63 @@
       <c r="D28" s="65"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="62" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="60" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="69"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
+      <c r="D30" s="61"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="60" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A32" s="67"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="72"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="61"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="60" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="77"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="65"/>
     </row>
     <row r="35" spans="1:4">
@@ -3442,6 +3442,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
@@ -3450,19 +3463,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3470,12 +3470,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:CD45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8522,7 +8521,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:82" hidden="1">
+    <row r="21" spans="1:82">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -8770,7 +8769,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:82" hidden="1">
+    <row r="22" spans="1:82">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -9018,7 +9017,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:82" hidden="1">
+    <row r="23" spans="1:82">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -9266,7 +9265,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:82" hidden="1">
+    <row r="24" spans="1:82">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -9514,7 +9513,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="1:82" hidden="1">
+    <row r="25" spans="1:82">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -9762,7 +9761,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:82" hidden="1">
+    <row r="26" spans="1:82">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -10010,7 +10009,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:82" hidden="1">
+    <row r="27" spans="1:82">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -10258,7 +10257,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:82" hidden="1">
+    <row r="28" spans="1:82">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -10506,7 +10505,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:82" hidden="1">
+    <row r="29" spans="1:82">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -10754,7 +10753,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="30" spans="1:82" hidden="1">
+    <row r="30" spans="1:82">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -11002,7 +11001,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="1:82" hidden="1">
+    <row r="31" spans="1:82">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -11250,7 +11249,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:82" hidden="1">
+    <row r="32" spans="1:82">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -11498,7 +11497,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:82" hidden="1">
+    <row r="33" spans="1:82">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -11746,7 +11745,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="1:82" hidden="1">
+    <row r="34" spans="1:82">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -11994,7 +11993,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="35" spans="1:82" hidden="1">
+    <row r="35" spans="1:82">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -12242,7 +12241,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="36" spans="1:82" hidden="1">
+    <row r="36" spans="1:82">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -12490,7 +12489,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="1:82" hidden="1">
+    <row r="37" spans="1:82">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -12738,7 +12737,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="1:82" hidden="1">
+    <row r="38" spans="1:82">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -12986,7 +12985,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:82" hidden="1">
+    <row r="39" spans="1:82">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -13234,7 +13233,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:82" hidden="1">
+    <row r="40" spans="1:82">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -13482,7 +13481,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:82" hidden="1">
+    <row r="41" spans="1:82">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -13978,7 +13977,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:82" hidden="1">
+    <row r="43" spans="1:82">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -14226,7 +14225,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:82" hidden="1">
+    <row r="44" spans="1:82">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -14474,7 +14473,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="45" spans="1:82" hidden="1">
+    <row r="45" spans="1:82">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -14723,14 +14722,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CD45" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Calidad del agua"/>
-        <filter val="Temperatura del agua"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:CD45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
